--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N2">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q2">
-        <v>168.423575400305</v>
+        <v>130.2777690960675</v>
       </c>
       <c r="R2">
-        <v>1515.812178602745</v>
+        <v>1172.499921864608</v>
       </c>
       <c r="S2">
-        <v>0.0120124215801676</v>
+        <v>0.004987871324649804</v>
       </c>
       <c r="T2">
-        <v>0.0120124215801676</v>
+        <v>0.004987871324649804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q3">
-        <v>978.3278078849919</v>
+        <v>1116.497886943413</v>
       </c>
       <c r="R3">
-        <v>8804.950270964926</v>
+        <v>10048.48098249072</v>
       </c>
       <c r="S3">
-        <v>0.06977696586706268</v>
+        <v>0.04274672365789881</v>
       </c>
       <c r="T3">
-        <v>0.06977696586706267</v>
+        <v>0.04274672365789881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N4">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O4">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P4">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q4">
-        <v>2271.774778269219</v>
+        <v>5620.000979988031</v>
       </c>
       <c r="R4">
-        <v>20445.97300442297</v>
+        <v>50580.00881989227</v>
       </c>
       <c r="S4">
-        <v>0.1620290764336322</v>
+        <v>0.2151698016252893</v>
       </c>
       <c r="T4">
-        <v>0.1620290764336322</v>
+        <v>0.2151698016252893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H5">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N5">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O5">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P5">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q5">
-        <v>66.38231083909945</v>
+        <v>96.67435269795556</v>
       </c>
       <c r="R5">
-        <v>597.440797551895</v>
+        <v>870.0691742816</v>
       </c>
       <c r="S5">
-        <v>0.004734564631879604</v>
+        <v>0.003701316310502965</v>
       </c>
       <c r="T5">
-        <v>0.004734564631879604</v>
+        <v>0.003701316310502965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N6">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q6">
-        <v>351.951508448919</v>
+        <v>238.548535070749</v>
       </c>
       <c r="R6">
-        <v>3167.563576040271</v>
+        <v>2146.936815636741</v>
       </c>
       <c r="S6">
-        <v>0.02510212649990257</v>
+        <v>0.009133172957077622</v>
       </c>
       <c r="T6">
-        <v>0.02510212649990257</v>
+        <v>0.009133172957077624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q7">
         <v>2044.392816886035</v>
@@ -883,10 +883,10 @@
         <v>18399.53535197431</v>
       </c>
       <c r="S7">
-        <v>0.1458115844740402</v>
+        <v>0.0782725124817454</v>
       </c>
       <c r="T7">
-        <v>0.1458115844740401</v>
+        <v>0.0782725124817454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J8">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N8">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O8">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P8">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q8">
-        <v>4747.284091123815</v>
+        <v>10290.65058585491</v>
       </c>
       <c r="R8">
-        <v>42725.55682011433</v>
+        <v>92615.85527269421</v>
       </c>
       <c r="S8">
-        <v>0.3385890468591654</v>
+        <v>0.3939923236736311</v>
       </c>
       <c r="T8">
-        <v>0.3385890468591653</v>
+        <v>0.3939923236736311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J9">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N9">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O9">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P9">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q9">
-        <v>138.717839106649</v>
+        <v>177.0181157923</v>
       </c>
       <c r="R9">
-        <v>1248.460551959841</v>
+        <v>1593.1630421307</v>
       </c>
       <c r="S9">
-        <v>0.009893728713919166</v>
+        <v>0.006777392565364427</v>
       </c>
       <c r="T9">
-        <v>0.009893728713919166</v>
+        <v>0.006777392565364428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N10">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q10">
-        <v>40.634311640358</v>
+        <v>50.63495639939867</v>
       </c>
       <c r="R10">
-        <v>365.708804763222</v>
+        <v>455.714607594588</v>
       </c>
       <c r="S10">
-        <v>0.002898148200949593</v>
+        <v>0.001938631961552965</v>
       </c>
       <c r="T10">
-        <v>0.002898148200949592</v>
+        <v>0.001938631961552965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H11">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I11">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J11">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q11">
-        <v>236.03392183987</v>
+        <v>433.9483414373801</v>
       </c>
       <c r="R11">
-        <v>2124.305296558829</v>
+        <v>3905.53507293642</v>
       </c>
       <c r="S11">
-        <v>0.01683457300809512</v>
+        <v>0.01661433492186032</v>
       </c>
       <c r="T11">
-        <v>0.01683457300809511</v>
+        <v>0.01661433492186032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N12">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O12">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P12">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q12">
-        <v>548.0943157600813</v>
+        <v>2184.321289508952</v>
       </c>
       <c r="R12">
-        <v>4932.848841840731</v>
+        <v>19658.89160558057</v>
       </c>
       <c r="S12">
-        <v>0.0390915581203822</v>
+        <v>0.0836298748386585</v>
       </c>
       <c r="T12">
-        <v>0.03909155812038219</v>
+        <v>0.08362987483865851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H13">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I13">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J13">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N13">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O13">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P13">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q13">
-        <v>16.01556967088466</v>
+        <v>37.57434340306667</v>
       </c>
       <c r="R13">
-        <v>144.1401270379619</v>
+        <v>338.1690906276</v>
       </c>
       <c r="S13">
-        <v>0.001142273427434104</v>
+        <v>0.001438587652391401</v>
       </c>
       <c r="T13">
-        <v>0.001142273427434104</v>
+        <v>0.001438587652391401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H14">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N14">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q14">
-        <v>116.606871783825</v>
+        <v>69.19206823912278</v>
       </c>
       <c r="R14">
-        <v>1049.461846054425</v>
+        <v>622.728614152105</v>
       </c>
       <c r="S14">
-        <v>0.008316715161061233</v>
+        <v>0.002649117615827752</v>
       </c>
       <c r="T14">
-        <v>0.008316715161061233</v>
+        <v>0.002649117615827753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H15">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.377195</v>
       </c>
       <c r="O15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q15">
-        <v>677.3383416511251</v>
+        <v>592.9852692308417</v>
       </c>
       <c r="R15">
-        <v>6096.045074860125</v>
+        <v>5336.867423077575</v>
       </c>
       <c r="S15">
-        <v>0.04830958904052678</v>
+        <v>0.02270329190358801</v>
       </c>
       <c r="T15">
-        <v>0.04830958904052678</v>
+        <v>0.02270329190358801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H16">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N16">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O16">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P16">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q16">
-        <v>1572.847207772117</v>
+        <v>2984.849172728169</v>
       </c>
       <c r="R16">
-        <v>14155.62486994905</v>
+        <v>26863.64255455353</v>
       </c>
       <c r="S16">
-        <v>0.1121796856291766</v>
+        <v>0.1142792335204712</v>
       </c>
       <c r="T16">
-        <v>0.1121796856291766</v>
+        <v>0.1142792335204712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N17">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O17">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P17">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q17">
-        <v>45.95932362990833</v>
+        <v>51.34489525927778</v>
       </c>
       <c r="R17">
-        <v>413.6339126691749</v>
+        <v>462.1040573335</v>
       </c>
       <c r="S17">
-        <v>0.003277942352604977</v>
+        <v>0.001965812989490543</v>
       </c>
       <c r="T17">
-        <v>0.003277942352604978</v>
+        <v>0.001965812989490544</v>
       </c>
     </row>
   </sheetData>
